--- a/diver_data/soil_moisture_probe_and diver_details.xlsx
+++ b/diver_data/soil_moisture_probe_and diver_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rutuja/Dropbox (Smithsonian)/Work_at_SERC/Projects/SERC_ForestGEOplot_field_work/SERC_instrumentation/data-packages/soilmoisture_package/soilmoisture/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rutuja/Dropbox (Smithsonian)/Work_at_SERC/Projects/SERC_ForestGEOplot_field_work/SERC_instrumentation/data-packages/watertable_package/watertable/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1CE10-D11F-AC42-B582-237D76AC7FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A65383-8FC0-B041-A24C-F3EF86B677FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="3340" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil_moisture_probe_details" sheetId="1" r:id="rId1"/>
@@ -168,19 +168,19 @@
     <t>1e</t>
   </si>
   <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>5f</t>
+  </si>
+  <si>
     <t>6b</t>
-  </si>
-  <si>
-    <t>5f</t>
-  </si>
-  <si>
-    <t>4c</t>
-  </si>
-  <si>
-    <t>3a</t>
-  </si>
-  <si>
-    <t>2d</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -707,6 +707,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1065,7 +1066,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,10 +1091,10 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1214,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -1275,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
@@ -1400,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
@@ -1462,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
